--- a/modeleLogiqueCorpsSBM/ig/StructureDefinition-fr-lm-antecedent-familial-observe.xlsx
+++ b/modeleLogiqueCorpsSBM/ig/StructureDefinition-fr-lm-antecedent-familial-observe.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-08T10:06:53+00:00</t>
+    <t>2026-01-14T16:02:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
